--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R211_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R211_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -709,10 +721,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -756,28 +768,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -802,28 +814,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1404,10 +1416,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1451,28 +1463,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1497,28 +1509,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1983,10 +1995,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2030,28 +2042,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2076,28 +2088,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2446,10 +2458,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="J80" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2493,28 +2505,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2539,28 +2551,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2909,10 +2921,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2956,28 +2968,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3002,28 +3014,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3198,10 +3210,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="J106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3245,28 +3257,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3291,28 +3303,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3777,10 +3789,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
+      <c r="J126" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3824,28 +3836,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3870,28 +3882,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4066,10 +4078,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="J136" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4113,28 +4125,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="2">
+      <c r="A138" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4159,28 +4171,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="2">
+      <c r="C140" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="2">
+      <c r="D140" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="2">
+      <c r="I140" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4355,10 +4367,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="J146" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
